--- a/Excel/Synthe.xlsx
+++ b/Excel/Synthe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1308,8 +1308,7 @@
     <col min="2" max="2" width="19.125" style="16" customWidth="1"/>
     <col min="3" max="3" width="32.125" style="16" customWidth="1"/>
     <col min="4" max="8" width="18.625" style="16" customWidth="1"/>
-    <col min="9" max="16376" width="9" style="16"/>
-    <col min="16379" max="16384" width="9" style="16"/>
+    <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="26" customHeight="1" spans="1:8">

--- a/Excel/Synthe.xlsx
+++ b/Excel/Synthe.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -51,7 +51,7 @@
     <t>数量</t>
   </si>
   <si>
-    <t>贴图</t>
+    <t>合成物品id</t>
   </si>
   <si>
     <t>id</t>
@@ -75,7 +75,7 @@
     <t>quality</t>
   </si>
   <si>
-    <t>png</t>
+    <t>synthe_item_id</t>
   </si>
   <si>
     <t>int</t>
@@ -105,7 +105,7 @@
     <t>2|1</t>
   </si>
   <si>
-    <t>Item_500101</t>
+    <t>500101</t>
   </si>
   <si>
     <t>100102</t>
@@ -120,13 +120,10 @@
     <t>30</t>
   </si>
   <si>
-    <t>500101</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Item_500102</t>
+    <t>500102</t>
   </si>
   <si>
     <t>100103</t>
@@ -147,7 +144,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>Item_500103</t>
+    <t>500103</t>
   </si>
   <si>
     <t>100104</t>
@@ -165,7 +162,7 @@
     <t>100109</t>
   </si>
   <si>
-    <t>Item_500104</t>
+    <t>500104</t>
   </si>
   <si>
     <t>类型（farm_type）</t>
@@ -1298,15 +1295,15 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
     <col min="2" max="2" width="19.125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="32.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="29.0833333333333" style="16" customWidth="1"/>
     <col min="4" max="8" width="18.625" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
@@ -1385,8 +1382,8 @@
       <c r="G3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>17</v>
+      <c r="H3" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
@@ -1432,65 +1429,65 @@
         <v>29</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1516,7 @@
     <row r="1" ht="16.5" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3"/>
       <c r="Q1" s="10"/>
@@ -1527,13 +1524,13 @@
     <row r="2" ht="16.5" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="Q2" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:17">
@@ -1551,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="Q4" s="13">
         <v>1</v>
@@ -1565,10 +1562,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="Q5" s="13">
         <v>2</v>
@@ -1579,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="Q6" s="13">
         <v>3</v>
@@ -1647,10 +1644,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="Q12" s="13">
         <v>9</v>

--- a/Excel/Synthe.xlsx
+++ b/Excel/Synthe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20700" windowHeight="12450"/>
+    <workbookView windowWidth="18720" windowHeight="13695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -82,10 +82,10 @@
     <t>小麦粉_合成</t>
   </si>
   <si>
-    <t>10</t>
+    <t>0.1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>500101</t>
@@ -100,9 +100,6 @@
     <t>面包_合成</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>500102</t>
   </si>
   <si>
@@ -115,13 +112,10 @@
     <t>法式长棍</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>500101|600101</t>
   </si>
   <si>
-    <t>2|5</t>
+    <t>1|1</t>
   </si>
   <si>
     <t>500103</t>
@@ -142,13 +136,10 @@
     <t>牛奶面包</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>500101|600101|600106</t>
   </si>
   <si>
-    <t>2|5|1</t>
+    <t>1|1|1</t>
   </si>
   <si>
     <t>500104</t>
@@ -167,12 +158,6 @@
   </si>
   <si>
     <t>蛋糕</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>5|8|2</t>
   </si>
   <si>
     <t>500105</t>
@@ -217,12 +202,6 @@
     <t>羊毛毯</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>500113</t>
   </si>
   <si>
@@ -247,9 +226,6 @@
     <t>玉米饼</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>500122</t>
   </si>
   <si>
@@ -262,13 +238,7 @@
     <t>番茄炒蛋</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>100104|600101</t>
-  </si>
-  <si>
-    <t>4|4</t>
   </si>
   <si>
     <t>500123</t>
@@ -289,13 +259,7 @@
     <t>胡萝卜土豆泥</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>100103|100106</t>
-  </si>
-  <si>
-    <t>3|3</t>
   </si>
   <si>
     <t>500124</t>
@@ -310,13 +274,10 @@
     <t>蔬菜披萨</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>100103|100104|100105|100106|500101</t>
   </si>
   <si>
-    <t>2|2|2|2|5</t>
+    <t>1|1|1|1|1</t>
   </si>
   <si>
     <t>500125</t>
@@ -334,9 +295,6 @@
     <t>600105|500102|100102</t>
   </si>
   <si>
-    <t>2|2|2</t>
-  </si>
-  <si>
     <t>500131</t>
   </si>
   <si>
@@ -350,9 +308,6 @@
   </si>
   <si>
     <t>600104|100102</t>
-  </si>
-  <si>
-    <t>7|4</t>
   </si>
   <si>
     <t>500132</t>
@@ -370,9 +325,6 @@
     <t>600104|600105|100102|100103|100106</t>
   </si>
   <si>
-    <t>5|5|1|1|1</t>
-  </si>
-  <si>
     <t>500133</t>
   </si>
   <si>
@@ -386,9 +338,6 @@
   </si>
   <si>
     <t>600106|600101</t>
-  </si>
-  <si>
-    <t>2|2</t>
   </si>
   <si>
     <t>500141</t>
@@ -424,9 +373,6 @@
     <t>奶酪</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>500143</t>
   </si>
   <si>
@@ -442,9 +388,6 @@
     <t>600106|100107</t>
   </si>
   <si>
-    <t>4|3</t>
-  </si>
-  <si>
     <t>500144</t>
   </si>
   <si>
@@ -457,7 +400,7 @@
     <t>草莓果酱_合成</t>
   </si>
   <si>
-    <t>360</t>
+    <t>2</t>
   </si>
   <si>
     <t>500151</t>
@@ -472,9 +415,6 @@
     <t>葡萄果酱_合成</t>
   </si>
   <si>
-    <t>420</t>
-  </si>
-  <si>
     <t>100109</t>
   </si>
   <si>
@@ -486,15 +426,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -507,15 +454,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +493,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,22 +552,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -575,46 +562,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,7 +585,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,49 +600,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,43 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,61 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,13 +660,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,11 +794,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,6 +814,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,21 +848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -902,6 +855,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,40 +891,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,19 +909,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,118 +930,121 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1434,7 +1384,7 @@
   <dimension ref="A1:H16384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1459,13 +1409,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1499,16 +1449,16 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1531,10 +1481,10 @@
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1554,17 +1504,17 @@
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1573,657 +1523,657 @@
         <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>99</v>
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>117</v>
+        <v>22</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>130</v>
+        <v>111</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>140</v>
+        <v>120</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>151</v>
+        <v>130</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" customFormat="1"/>
